--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.1236960638353</v>
+        <v>196.8889891047054</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.9869345418624</v>
+        <v>269.3922010220971</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.9502867540688</v>
+        <v>243.6817874509557</v>
       </c>
       <c r="AD2" t="n">
-        <v>138123.6960638353</v>
+        <v>196888.9891047054</v>
       </c>
       <c r="AE2" t="n">
-        <v>188986.9345418624</v>
+        <v>269392.2010220971</v>
       </c>
       <c r="AF2" t="n">
         <v>1.253148127100391e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>170950.2867540688</v>
+        <v>243681.7874509557</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.7955941026517</v>
+        <v>174.4925563059602</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.4366403922488</v>
+        <v>238.748413605988</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.3156698004775</v>
+        <v>215.9626000970046</v>
       </c>
       <c r="AD3" t="n">
-        <v>115795.5941026517</v>
+        <v>174492.5563059602</v>
       </c>
       <c r="AE3" t="n">
-        <v>158436.6403922488</v>
+        <v>238748.413605988</v>
       </c>
       <c r="AF3" t="n">
         <v>1.432335459812448e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>143315.6698004775</v>
+        <v>215962.6000970046</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.0599828755793</v>
+        <v>163.9352694196159</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.4301446584919</v>
+        <v>224.3034679334729</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.4052326069244</v>
+        <v>202.8962597658612</v>
       </c>
       <c r="AD4" t="n">
-        <v>115059.9828755793</v>
+        <v>163935.2694196159</v>
       </c>
       <c r="AE4" t="n">
-        <v>157430.1446584919</v>
+        <v>224303.4679334729</v>
       </c>
       <c r="AF4" t="n">
         <v>1.493774216318005e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>142405.2326069244</v>
+        <v>202896.2597658612</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.6484109885892</v>
+        <v>163.5236975326259</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.8670138454423</v>
+        <v>223.7403371204233</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.895846208313</v>
+        <v>202.3868733672498</v>
       </c>
       <c r="AD5" t="n">
-        <v>114648.4109885893</v>
+        <v>163523.6975326259</v>
       </c>
       <c r="AE5" t="n">
-        <v>156867.0138454423</v>
+        <v>223740.3371204233</v>
       </c>
       <c r="AF5" t="n">
         <v>1.514416529544563e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>141895.846208313</v>
+        <v>202386.8733672498</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.658858537744</v>
+        <v>173.0284498993603</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.5637498119662</v>
+        <v>236.7451586286631</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.2853849176859</v>
+        <v>214.150532963129</v>
       </c>
       <c r="AD2" t="n">
-        <v>124658.858537744</v>
+        <v>173028.4498993603</v>
       </c>
       <c r="AE2" t="n">
-        <v>170563.7498119662</v>
+        <v>236745.1586286631</v>
       </c>
       <c r="AF2" t="n">
         <v>1.531944407220105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>154285.3849176859</v>
+        <v>214150.532963129</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.2384227592067</v>
+        <v>161.5738487020422</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.9378057457115</v>
+        <v>221.0724679291606</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.1507590219593</v>
+        <v>199.9736218672225</v>
       </c>
       <c r="AD3" t="n">
-        <v>113238.4227592067</v>
+        <v>161573.8487020422</v>
       </c>
       <c r="AE3" t="n">
-        <v>154937.8057457115</v>
+        <v>221072.4679291606</v>
       </c>
       <c r="AF3" t="n">
         <v>1.700489088777086e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>140150.7590219594</v>
+        <v>199973.6218672225</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.0571897108885</v>
+        <v>161.0721537739748</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.0073935247079</v>
+        <v>220.3860267953611</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.5498457918676</v>
+        <v>199.3526937118063</v>
       </c>
       <c r="AD4" t="n">
-        <v>103057.1897108885</v>
+        <v>161072.1537739748</v>
       </c>
       <c r="AE4" t="n">
-        <v>141007.3935247079</v>
+        <v>220386.0267953611</v>
       </c>
       <c r="AF4" t="n">
         <v>1.721703903730088e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>127549.8457918676</v>
+        <v>199352.6937118063</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.77807939856704</v>
+        <v>135.5213226784182</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.4700848455121</v>
+        <v>185.4262524673255</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.8771504322231</v>
+        <v>167.729431179276</v>
       </c>
       <c r="AD2" t="n">
-        <v>88778.07939856705</v>
+        <v>135521.3226784182</v>
       </c>
       <c r="AE2" t="n">
-        <v>121470.0848455121</v>
+        <v>185426.2524673255</v>
       </c>
       <c r="AF2" t="n">
         <v>2.682476582934094e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.932291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>109877.1504322231</v>
+        <v>167729.431179276</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.6472167867808</v>
+        <v>148.0600674291746</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.7099622494437</v>
+        <v>202.5823162056795</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.5671167295397</v>
+        <v>183.2481442731335</v>
       </c>
       <c r="AD2" t="n">
-        <v>100647.2167867808</v>
+        <v>148060.0674291746</v>
       </c>
       <c r="AE2" t="n">
-        <v>137709.9622494437</v>
+        <v>202582.3162056795</v>
       </c>
       <c r="AF2" t="n">
         <v>2.147927288366683e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>124567.1167295397</v>
+        <v>183248.1442731335</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.95796291804008</v>
+        <v>137.8550890430315</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.7668946984985</v>
+        <v>188.6194145658934</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.7140542220528</v>
+        <v>170.6178423687887</v>
       </c>
       <c r="AD3" t="n">
-        <v>99957.96291804008</v>
+        <v>137855.0890430315</v>
       </c>
       <c r="AE3" t="n">
-        <v>136766.8946984985</v>
+        <v>188619.4145658934</v>
       </c>
       <c r="AF3" t="n">
         <v>2.263119086972741e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>123714.0542220528</v>
+        <v>170617.8423687887</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.54295873528865</v>
+        <v>133.7650092723931</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.7801382643375</v>
+        <v>183.0231869821242</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.3484899809003</v>
+        <v>165.5557108912579</v>
       </c>
       <c r="AD2" t="n">
-        <v>87542.95873528864</v>
+        <v>133765.0092723931</v>
       </c>
       <c r="AE2" t="n">
-        <v>119780.1382643375</v>
+        <v>183023.1869821242</v>
       </c>
       <c r="AF2" t="n">
         <v>3.090175376711642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>108348.4899809003</v>
+        <v>165555.7108912579</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.5888584422247</v>
+        <v>183.8424306351845</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.8362167099762</v>
+        <v>251.5413241505699</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.4364093608687</v>
+        <v>227.5345732141784</v>
       </c>
       <c r="AD2" t="n">
-        <v>125588.8584422247</v>
+        <v>183842.4306351845</v>
       </c>
       <c r="AE2" t="n">
-        <v>171836.2167099761</v>
+        <v>251541.3241505699</v>
       </c>
       <c r="AF2" t="n">
         <v>1.448029719570661e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>155436.4093608687</v>
+        <v>227534.5732141784</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.993654052282</v>
+        <v>162.4709777387108</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.9711465193498</v>
+        <v>222.2999594556698</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.0854792024649</v>
+        <v>201.0839633252372</v>
       </c>
       <c r="AD3" t="n">
-        <v>113993.654052282</v>
+        <v>162470.9777387108</v>
       </c>
       <c r="AE3" t="n">
-        <v>155971.1465193498</v>
+        <v>222299.9594556698</v>
       </c>
       <c r="AF3" t="n">
         <v>1.614877411444538e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>141085.4792024649</v>
+        <v>201083.9633252372</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.369861353891</v>
+        <v>161.8471850403197</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.11764582962</v>
+        <v>221.44645876594</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.3134354206668</v>
+        <v>200.3119195434391</v>
       </c>
       <c r="AD4" t="n">
-        <v>113369.861353891</v>
+        <v>161847.1850403197</v>
       </c>
       <c r="AE4" t="n">
-        <v>155117.64582962</v>
+        <v>221446.45876594</v>
       </c>
       <c r="AF4" t="n">
         <v>1.657157248510584e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>140313.4354206668</v>
+        <v>200311.9195434391</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.3807687025487</v>
+        <v>161.5660100579469</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.4501285763948</v>
+        <v>221.0617427504929</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.9503268316041</v>
+        <v>199.9639202845539</v>
       </c>
       <c r="AD5" t="n">
-        <v>103380.7687025487</v>
+        <v>161566.0100579469</v>
       </c>
       <c r="AE5" t="n">
-        <v>141450.1285763948</v>
+        <v>221061.7427504929</v>
       </c>
       <c r="AF5" t="n">
         <v>1.683651326014528e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>127950.3268316041</v>
+        <v>199963.9202845539</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.18490270610387</v>
+        <v>132.9098217696938</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.6044272608613</v>
+        <v>181.8530817127216</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0442854310934</v>
+        <v>164.4972788265137</v>
       </c>
       <c r="AD2" t="n">
-        <v>96184.90270610387</v>
+        <v>132909.8217696937</v>
       </c>
       <c r="AE2" t="n">
-        <v>131604.4272608613</v>
+        <v>181853.0817127216</v>
       </c>
       <c r="AF2" t="n">
         <v>3.336670299443882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>119044.2854310934</v>
+        <v>164497.2788265136</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.5247449240138</v>
+        <v>160.399644034274</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.9613202463572</v>
+        <v>219.4658693004671</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.2674679281571</v>
+        <v>198.5203547567756</v>
       </c>
       <c r="AD2" t="n">
-        <v>112524.7449240138</v>
+        <v>160399.644034274</v>
       </c>
       <c r="AE2" t="n">
-        <v>153961.3202463572</v>
+        <v>219465.8693004671</v>
       </c>
       <c r="AF2" t="n">
         <v>1.798924828942484e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>139267.4679281571</v>
+        <v>198520.3547567756</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.7072489315476</v>
+        <v>149.6494678495122</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.1603449952306</v>
+        <v>204.757003980182</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.8790769816941</v>
+        <v>185.2152828986317</v>
       </c>
       <c r="AD3" t="n">
-        <v>101707.2489315476</v>
+        <v>149649.4678495122</v>
       </c>
       <c r="AE3" t="n">
-        <v>139160.3449952306</v>
+        <v>204757.003980182</v>
       </c>
       <c r="AF3" t="n">
         <v>1.932085035078155e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>125879.0769816941</v>
+        <v>185215.2828986317</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.5662811850203</v>
+        <v>149.5085001029849</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.9674667053741</v>
+        <v>204.5641256903255</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.704606725115</v>
+        <v>185.0408126420526</v>
       </c>
       <c r="AD4" t="n">
-        <v>101566.2811850203</v>
+        <v>149508.5001029849</v>
       </c>
       <c r="AE4" t="n">
-        <v>138967.4667053741</v>
+        <v>204564.1256903255</v>
       </c>
       <c r="AF4" t="n">
         <v>1.959957610266597e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>125704.606725115</v>
+        <v>185040.8126420526</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9921080871472</v>
+        <v>171.8644852689453</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.9690312616492</v>
+        <v>235.1525708708346</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.0835658219904</v>
+        <v>212.7099395456962</v>
       </c>
       <c r="AD2" t="n">
-        <v>113992.1080871472</v>
+        <v>171864.4852689453</v>
       </c>
       <c r="AE2" t="n">
-        <v>155969.0312616492</v>
+        <v>235152.5708708346</v>
       </c>
       <c r="AF2" t="n">
         <v>1.622070397853016e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>141083.5658219904</v>
+        <v>212709.9395456962</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.8681774586725</v>
+        <v>160.7063892216898</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.7487786225941</v>
+        <v>219.8855715985318</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.3159127330431</v>
+        <v>198.900001256569</v>
       </c>
       <c r="AD3" t="n">
-        <v>102868.1774586725</v>
+        <v>160706.3892216898</v>
       </c>
       <c r="AE3" t="n">
-        <v>140748.7786225941</v>
+        <v>219885.5715985318</v>
       </c>
       <c r="AF3" t="n">
         <v>1.776643217584245e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>127315.9127330431</v>
+        <v>198900.001256569</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.5574085414219</v>
+        <v>150.8128607085709</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.3235708798549</v>
+        <v>206.348809415216</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.931286220488</v>
+        <v>186.6551686570595</v>
       </c>
       <c r="AD4" t="n">
-        <v>102557.4085414219</v>
+        <v>150812.8607085709</v>
       </c>
       <c r="AE4" t="n">
-        <v>140323.5708798549</v>
+        <v>206348.8094152159</v>
       </c>
       <c r="AF4" t="n">
         <v>1.800008168046749e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>126931.286220488</v>
+        <v>186655.1686570595</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.9983757958991</v>
+        <v>195.508065848821</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.4472217056464</v>
+        <v>267.5027609013626</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.5575219499403</v>
+        <v>241.9726728434977</v>
       </c>
       <c r="AD2" t="n">
-        <v>136998.375795899</v>
+        <v>195508.065848821</v>
       </c>
       <c r="AE2" t="n">
-        <v>187447.2217056464</v>
+        <v>267502.7609013626</v>
       </c>
       <c r="AF2" t="n">
         <v>1.323770235153722e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>169557.5219499402</v>
+        <v>241972.6728434977</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.0192252996245</v>
+        <v>173.56206974147</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.3743783449733</v>
+        <v>237.4752808382832</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.3547885520995</v>
+        <v>214.8109733337961</v>
       </c>
       <c r="AD3" t="n">
-        <v>115019.2252996245</v>
+        <v>173562.06974147</v>
       </c>
       <c r="AE3" t="n">
-        <v>157374.3783449733</v>
+        <v>237475.2808382832</v>
       </c>
       <c r="AF3" t="n">
         <v>1.506949704117585e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>142354.7885520995</v>
+        <v>214810.9733337961</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.5209443163741</v>
+        <v>163.2677993925249</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.6926083210848</v>
+        <v>223.3902059957081</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.7380857024205</v>
+        <v>202.0701582656652</v>
       </c>
       <c r="AD4" t="n">
-        <v>114520.9443163741</v>
+        <v>163267.7993925249</v>
       </c>
       <c r="AE4" t="n">
-        <v>156692.6083210848</v>
+        <v>223390.2059957081</v>
       </c>
       <c r="AF4" t="n">
         <v>1.544999545778011e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>141738.0857024205</v>
+        <v>202070.1582656652</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.199009225677</v>
+        <v>162.9458643018278</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.2521225272195</v>
+        <v>222.9497202018428</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.3396392544959</v>
+        <v>201.6717118177405</v>
       </c>
       <c r="AD5" t="n">
-        <v>114199.009225677</v>
+        <v>162945.8643018278</v>
       </c>
       <c r="AE5" t="n">
-        <v>156252.1225272195</v>
+        <v>222949.7202018427</v>
       </c>
       <c r="AF5" t="n">
         <v>1.564196749203064e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>141339.6392544959</v>
+        <v>201671.7118177406</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.147844515413</v>
+        <v>148.7465544614427</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.3949431938946</v>
+        <v>203.5215980488985</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.1867240540291</v>
+        <v>184.0977823755264</v>
       </c>
       <c r="AD2" t="n">
-        <v>101147.844515413</v>
+        <v>148746.5544614427</v>
       </c>
       <c r="AE2" t="n">
-        <v>138394.9431938945</v>
+        <v>203521.5980488985</v>
       </c>
       <c r="AF2" t="n">
         <v>2.056907170115022e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>125186.7240540291</v>
+        <v>184097.7823755264</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.575842441714</v>
+        <v>148.0730671612584</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.6123047217095</v>
+        <v>202.6001030126242</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.4787794991892</v>
+        <v>183.2642335321874</v>
       </c>
       <c r="AD3" t="n">
-        <v>100575.842441714</v>
+        <v>148073.0671612584</v>
       </c>
       <c r="AE3" t="n">
-        <v>137612.3047217095</v>
+        <v>202600.1030126242</v>
       </c>
       <c r="AF3" t="n">
         <v>2.139626508569206e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>124478.7794991892</v>
+        <v>183264.2335321874</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.93850605609606</v>
+        <v>136.5090851417592</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.3720288447248</v>
+        <v>186.7777526466723</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.4523124076563</v>
+        <v>168.9519460783487</v>
       </c>
       <c r="AD2" t="n">
-        <v>98938.50605609606</v>
+        <v>136509.0851417592</v>
       </c>
       <c r="AE2" t="n">
-        <v>135372.0288447248</v>
+        <v>186777.7526466723</v>
       </c>
       <c r="AF2" t="n">
         <v>2.500725292802462e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>122452.3124076563</v>
+        <v>168951.9460783487</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.96509081646397</v>
+        <v>136.5356699021271</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.4084032866971</v>
+        <v>186.8141270886445</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.4852153239385</v>
+        <v>168.984848994631</v>
       </c>
       <c r="AD3" t="n">
-        <v>98965.09081646397</v>
+        <v>136535.6699021271</v>
       </c>
       <c r="AE3" t="n">
-        <v>135408.4032866971</v>
+        <v>186814.1270886445</v>
       </c>
       <c r="AF3" t="n">
         <v>2.491200913208228e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>122485.2153239385</v>
+        <v>168984.848994631</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.22941447499706</v>
+        <v>134.7250861444771</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.719377291696</v>
+        <v>184.3368065141112</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.1980893537182</v>
+        <v>166.7439604187891</v>
       </c>
       <c r="AD2" t="n">
-        <v>88229.41447499706</v>
+        <v>134725.0861444771</v>
       </c>
       <c r="AE2" t="n">
-        <v>120719.377291696</v>
+        <v>184336.8065141112</v>
       </c>
       <c r="AF2" t="n">
         <v>2.850187864941837e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>109198.0893537182</v>
+        <v>166743.9604187891</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.23090807617444</v>
+        <v>131.6686154960061</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.2991297209198</v>
+        <v>180.1548085309069</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.863563656367</v>
+        <v>162.9610864536295</v>
       </c>
       <c r="AD2" t="n">
-        <v>95230.90807617444</v>
+        <v>131668.6154960061</v>
       </c>
       <c r="AE2" t="n">
-        <v>130299.1297209198</v>
+        <v>180154.8085309069</v>
       </c>
       <c r="AF2" t="n">
         <v>3.71202476058617e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>117863.563656367</v>
+        <v>162961.0864536295</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.3556010558412</v>
+        <v>171.0440467903628</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.0981342607083</v>
+        <v>234.0300107492474</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.2957860085074</v>
+        <v>211.6945149865899</v>
       </c>
       <c r="AD2" t="n">
-        <v>113355.6010558412</v>
+        <v>171044.0467903627</v>
       </c>
       <c r="AE2" t="n">
-        <v>155098.1342607083</v>
+        <v>234030.0107492474</v>
       </c>
       <c r="AF2" t="n">
         <v>1.694577411529625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>140295.7860085074</v>
+        <v>211694.5149865899</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.2227107727131</v>
+        <v>150.3248867337984</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.8656226268844</v>
+        <v>205.6811418950401</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.5170439060464</v>
+        <v>186.0512223879317</v>
       </c>
       <c r="AD3" t="n">
-        <v>102222.7107727131</v>
+        <v>150324.8867337984</v>
       </c>
       <c r="AE3" t="n">
-        <v>139865.6226268844</v>
+        <v>205681.1418950401</v>
       </c>
       <c r="AF3" t="n">
         <v>1.858216980617867e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>126517.0439060464</v>
+        <v>186051.2223879317</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.1049007855765</v>
+        <v>150.2070767466618</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.7044298050743</v>
+        <v>205.5199490732301</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.3712351009143</v>
+        <v>185.9054135827997</v>
       </c>
       <c r="AD4" t="n">
-        <v>102104.9007855765</v>
+        <v>150207.0767466618</v>
       </c>
       <c r="AE4" t="n">
-        <v>139704.4298050743</v>
+        <v>205519.9490732301</v>
       </c>
       <c r="AF4" t="n">
         <v>1.873082549433947e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>126371.2351009143</v>
+        <v>185905.4135827997</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.2059568856011</v>
+        <v>184.6239296433598</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.6805580246652</v>
+        <v>252.6106055708577</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.2001679255246</v>
+        <v>228.5018039164602</v>
       </c>
       <c r="AD2" t="n">
-        <v>126205.9568856011</v>
+        <v>184623.9296433598</v>
       </c>
       <c r="AE2" t="n">
-        <v>172680.5580246652</v>
+        <v>252610.6055708577</v>
       </c>
       <c r="AF2" t="n">
         <v>1.394801871930392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>156200.1679255246</v>
+        <v>228501.8039164602</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.6010134123071</v>
+        <v>163.3168227958869</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.8021623905396</v>
+        <v>223.4572819789478</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.8371840852467</v>
+        <v>202.1308326112063</v>
       </c>
       <c r="AD3" t="n">
-        <v>114601.0134123071</v>
+        <v>163316.8227958869</v>
       </c>
       <c r="AE3" t="n">
-        <v>156802.1623905397</v>
+        <v>223457.2819789478</v>
       </c>
       <c r="AF3" t="n">
         <v>1.553274929273767e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>141837.1840852467</v>
+        <v>202130.8326112063</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.9986440259798</v>
+        <v>162.6129681830743</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.9779740215052</v>
+        <v>222.4942370458242</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.0916550973971</v>
+        <v>201.2596993348576</v>
       </c>
       <c r="AD4" t="n">
-        <v>113998.6440259798</v>
+        <v>162612.9681830744</v>
       </c>
       <c r="AE4" t="n">
-        <v>155977.9740215052</v>
+        <v>222494.2370458242</v>
       </c>
       <c r="AF4" t="n">
         <v>1.595421216191041e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>141091.655097397</v>
+        <v>201259.6993348576</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.7076661812595</v>
+        <v>162.3219903383541</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.5798452973227</v>
+        <v>222.0961083216416</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.7315232198731</v>
+        <v>200.8995674573337</v>
       </c>
       <c r="AD5" t="n">
-        <v>113707.6661812595</v>
+        <v>162321.9903383541</v>
       </c>
       <c r="AE5" t="n">
-        <v>155579.8452973227</v>
+        <v>222096.1083216416</v>
       </c>
       <c r="AF5" t="n">
         <v>1.621474941451898e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>140731.5232198731</v>
+        <v>200899.5674573337</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.25136485912614</v>
+        <v>139.3997116478113</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.9588754769582</v>
+        <v>190.732835357692</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.6512213963899</v>
+        <v>172.5295612464234</v>
       </c>
       <c r="AD2" t="n">
-        <v>94251.36485912614</v>
+        <v>139399.7116478113</v>
       </c>
       <c r="AE2" t="n">
-        <v>128958.8754769582</v>
+        <v>190732.835357692</v>
       </c>
       <c r="AF2" t="n">
         <v>4.080895644830604e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>116651.2213963899</v>
+        <v>172529.5612464234</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.88352381636926</v>
+        <v>146.997577892456</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.6650438355711</v>
+        <v>201.1285711478117</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.6219238625346</v>
+        <v>181.9331426032442</v>
       </c>
       <c r="AD2" t="n">
-        <v>99883.52381636926</v>
+        <v>146997.577892456</v>
       </c>
       <c r="AE2" t="n">
-        <v>136665.0438355712</v>
+        <v>201128.5711478117</v>
       </c>
       <c r="AF2" t="n">
         <v>2.299176036656682e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>123621.9238625346</v>
+        <v>181933.1426032442</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.4895135037608</v>
+        <v>137.2287905568948</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.1259415433523</v>
+        <v>187.7624853468224</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.1342727364501</v>
+        <v>169.8426972716778</v>
       </c>
       <c r="AD3" t="n">
-        <v>99489.5135037608</v>
+        <v>137228.7905568948</v>
       </c>
       <c r="AE3" t="n">
-        <v>136125.9415433523</v>
+        <v>187762.4853468224</v>
       </c>
       <c r="AF3" t="n">
         <v>2.369964316130209e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>123134.2727364501</v>
+        <v>169842.6972716778</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.6264249720847</v>
+        <v>159.3338449099906</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.7321992570492</v>
+        <v>218.0075959188844</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.1556525209861</v>
+        <v>197.2012569400312</v>
       </c>
       <c r="AD2" t="n">
-        <v>111626.4249720847</v>
+        <v>159333.8449099906</v>
       </c>
       <c r="AE2" t="n">
-        <v>152732.1992570492</v>
+        <v>218007.5959188844</v>
       </c>
       <c r="AF2" t="n">
         <v>1.923504537809651e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>138155.6525209861</v>
+        <v>197201.2569400312</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.1045555397857</v>
+        <v>148.879295285396</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.3357133076666</v>
+        <v>203.7032199003433</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.133146985013</v>
+        <v>184.2620704923772</v>
       </c>
       <c r="AD3" t="n">
-        <v>101104.5555397857</v>
+        <v>148879.295285396</v>
       </c>
       <c r="AE3" t="n">
-        <v>138335.7133076666</v>
+        <v>203703.2199003433</v>
       </c>
       <c r="AF3" t="n">
         <v>2.030899133965455e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>125133.146985013</v>
+        <v>184262.0704923772</v>
       </c>
     </row>
   </sheetData>
